--- a/Ka-band-Mixer/Ka-band-Mixer.xlsx
+++ b/Ka-band-Mixer/Ka-band-Mixer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riccardo\Documents\git\Ka-band-Mixer\Ka-band-Mixer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6CE6BE1-A8E2-4219-B945-618776EA4287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52137FEF-6AA9-40A6-98FF-3E712B5CA05E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-7065" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Ka-band-Mixer" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="189">
   <si>
     <t>Reference</t>
   </si>
@@ -28,184 +28,490 @@
     <t xml:space="preserve"> Value</t>
   </si>
   <si>
+    <t xml:space="preserve"> Footprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Datasheet</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Manufacturer/Part Number</t>
   </si>
   <si>
     <t xml:space="preserve"> Supplier Stock Code</t>
   </si>
   <si>
-    <t xml:space="preserve"> Footprint</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Datasheet</t>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>10p</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0402_1005Metric_Pad0.74x0.62mm_HandSolder</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>04025A100JAT2A</t>
+  </si>
+  <si>
+    <t>581-04025A100J</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>0.1u</t>
+  </si>
+  <si>
+    <t>0402YD104MAT2A</t>
+  </si>
+  <si>
+    <t>581-0402YD104MAT2A</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>IQXT-220-1</t>
+  </si>
+  <si>
+    <t>Oscillator:Oscillator_SMD_Abracon_ASE-4Pin_3.2x2.5mm_HandSoldering</t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/datasheet/2/741/LFTCXO075792Cutt-1115708.pdf</t>
+  </si>
+  <si>
+    <t>LFTCXO075792Cutt</t>
+  </si>
+  <si>
+    <t>C2</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>10p</t>
-  </si>
-  <si>
-    <t>04025A100JAT2A</t>
-  </si>
-  <si>
-    <t>581-04025A100J</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:C_0402_1005Metric_Pad0.74x0.62mm_HandSolder</t>
-  </si>
-  <si>
-    <t>~</t>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>1n</t>
+  </si>
+  <si>
+    <t>04025C102JAT2A</t>
+  </si>
+  <si>
+    <t>581-04025C102J</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0402_1005Metric_Pad0.72x0.64mm_HandSolder</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>TP1</t>
+  </si>
+  <si>
+    <t>TestPoint</t>
+  </si>
+  <si>
+    <t>TestPoint:TestPoint_Loop_D2.60mm_Drill1.6mm_Beaded</t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/datasheet/2/215/005-5009-741293.pdf</t>
+  </si>
+  <si>
+    <t>Mouser 534-5007</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>2.61k</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>7.5k</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>330p</t>
+  </si>
+  <si>
+    <t>GRM022R71C331KE14L</t>
+  </si>
+  <si>
+    <t>81-GRM022R71C331KE4L</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>5.60n</t>
+  </si>
+  <si>
+    <t>GCM155R71H562JA55D</t>
+  </si>
+  <si>
+    <t>81-GCM155R71H562JA5D</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>120p</t>
+  </si>
+  <si>
+    <t>04023A121JAT2A</t>
+  </si>
+  <si>
+    <t>581-04023A121JAT2A</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>LED_SMD:LED_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
+  </si>
+  <si>
+    <t>https://www.mouser.it/datasheet/2/678/av02-0551en-ds-hsmx-cxxx-05mar2012-1827675.pdf</t>
+  </si>
+  <si>
+    <t>HSMG-C170</t>
+  </si>
+  <si>
+    <t>630-HSMG-C170</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>100p</t>
+  </si>
+  <si>
+    <t>GCM1555C1H101JA16D</t>
+  </si>
+  <si>
+    <t>81-GCM1555C1H101JA6D</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>1u</t>
+  </si>
+  <si>
+    <t>963-GMK105CC6105MV-F</t>
+  </si>
+  <si>
+    <t>GMK105CC6105MV-F</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>1u</t>
-  </si>
-  <si>
-    <t>963-GMK105CC6105MV-F</t>
-  </si>
-  <si>
-    <t>GMK105CC6105MV-F</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>330p</t>
-  </si>
-  <si>
-    <t>GRM022R71C331KE14L</t>
-  </si>
-  <si>
-    <t>81-GRM022R71C331KE4L</t>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>4.64k</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>ADF4150HV</t>
+  </si>
+  <si>
+    <t>Microwave_LO_Generator:LFCSP-32-1EP_5x5mm_P0.5mm_mod</t>
+  </si>
+  <si>
+    <t>https://www.analog.com/media/en/technical-documentation/data-sheets/ADF4150HV.pdf</t>
+  </si>
+  <si>
+    <t>ADF4150HVBCPZ</t>
+  </si>
+  <si>
+    <t>584-ADF4150HVBCPZ</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>Conn_01x05_Male</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x05_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
   </si>
   <si>
     <t>C14</t>
   </si>
   <si>
-    <t>5.60n</t>
-  </si>
-  <si>
-    <t>GCM155R71H562JA55D</t>
-  </si>
-  <si>
-    <t>81-GCM155R71H562JA5D</t>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>DIODE</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_MELF</t>
+  </si>
+  <si>
+    <t>SM4004-W</t>
+  </si>
+  <si>
+    <t>583-SM4004</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>10r</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>1K8</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>300r</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>4.7u</t>
+  </si>
+  <si>
+    <t>0402YD475MAT2A</t>
+  </si>
+  <si>
+    <t>581-0402YD475MAT2A</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>3.3u</t>
+  </si>
+  <si>
+    <t>C1005X5R1A335K050BC</t>
+  </si>
+  <si>
+    <t>810-C1005X5R1A335K0C</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>AP2012HD</t>
+  </si>
+  <si>
+    <t>604-AP2012HD</t>
+  </si>
+  <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>LT1962-5</t>
+  </si>
+  <si>
+    <t>Package_SO:MSOP-8_3x3mm_P0.65mm</t>
+  </si>
+  <si>
+    <t>https://www.analog.com/media/en/technical-documentation/data-sheets/1962fb.pdf</t>
+  </si>
+  <si>
+    <t>LT1962EMS8-5#PBF</t>
+  </si>
+  <si>
+    <t>584-LT1962EMS8-5#PBF</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>LT1962-3.3</t>
+  </si>
+  <si>
+    <t>LT1962EMS8-3.3#PBF</t>
+  </si>
+  <si>
+    <t>584-1962EMS8-3.3PBF</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>C29</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>10n</t>
+  </si>
+  <si>
+    <t>0402YC103KAT4A</t>
+  </si>
+  <si>
+    <t>581-0402YC103KAT4A</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>04025C101KAT2A</t>
+  </si>
+  <si>
+    <t>581-04025C101KAT2A</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>LT3010</t>
+  </si>
+  <si>
+    <t>Package_SO:MSOP-8-1EP_3x3mm_P0.65mm_EP1.68x1.88mm</t>
+  </si>
+  <si>
+    <t>https://www.analog.com/media/en/technical-documentation/data-sheets/30105fe.pdf</t>
+  </si>
+  <si>
+    <t>LT3010EMS8E#PBF</t>
+  </si>
+  <si>
+    <t>584-LT3010EMS8E#PBF</t>
   </si>
   <si>
     <t>C15</t>
   </si>
   <si>
-    <t>120p</t>
-  </si>
-  <si>
-    <t>04023A121JAT2A</t>
-  </si>
-  <si>
-    <t>581-04023A121JAT2A</t>
-  </si>
-  <si>
-    <t>C16</t>
-  </si>
-  <si>
-    <t>C17</t>
-  </si>
-  <si>
-    <t>4.7u</t>
-  </si>
-  <si>
-    <t>0402YD475MAT2A</t>
-  </si>
-  <si>
-    <t>581-0402YD475MAT2A</t>
-  </si>
-  <si>
-    <t>C19</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>0.1u</t>
-  </si>
-  <si>
-    <t>581-0402YD104MAT2A</t>
-  </si>
-  <si>
-    <t>0402YD104MAT2A</t>
-  </si>
-  <si>
-    <t>C21</t>
-  </si>
-  <si>
-    <t>100p</t>
-  </si>
-  <si>
-    <t>GCM1555C1H101JA16D</t>
-  </si>
-  <si>
-    <t>81-GCM1555C1H101JA6D</t>
-  </si>
-  <si>
-    <t>C22</t>
-  </si>
-  <si>
-    <t>C23</t>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>Conn_01x02_Male</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x02_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>TP3</t>
+  </si>
+  <si>
+    <t>TP6</t>
+  </si>
+  <si>
+    <t>TP4</t>
+  </si>
+  <si>
+    <t>TP5</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>TP2</t>
+  </si>
+  <si>
+    <t>C25</t>
   </si>
   <si>
     <t>C24</t>
   </si>
   <si>
-    <t>C25</t>
-  </si>
-  <si>
-    <t>3.3u</t>
-  </si>
-  <si>
-    <t>C1005X5R1A335K050BC</t>
-  </si>
-  <si>
-    <t>810-C1005X5R1A335K0C</t>
-  </si>
-  <si>
-    <t>C26</t>
-  </si>
-  <si>
-    <t>C27</t>
-  </si>
-  <si>
-    <t>C28</t>
+    <t>C32</t>
   </si>
   <si>
     <t>1000p</t>
   </si>
   <si>
+    <t>Capacitor_SMD:C_0201_0603Metric_Pad0.64x0.40mm_HandSolder</t>
+  </si>
+  <si>
     <t>TMK063CG102JT-F</t>
   </si>
   <si>
     <t>963-TMK063CG102JT-F</t>
   </si>
   <si>
-    <t>Capacitor_SMD:C_0201_0603Metric_Pad0.64x0.40mm_HandSolder</t>
-  </si>
-  <si>
-    <t>C29</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>04025C101KAT2A</t>
-  </si>
-  <si>
-    <t>581-04025C101KAT2A</t>
+    <t>C33</t>
+  </si>
+  <si>
+    <t>C34</t>
   </si>
   <si>
     <t>C30</t>
@@ -214,109 +520,43 @@
     <t>C31</t>
   </si>
   <si>
-    <t>C32</t>
-  </si>
-  <si>
-    <t>10n</t>
-  </si>
-  <si>
-    <t>0402YC103KAT4A</t>
-  </si>
-  <si>
-    <t>581-0402YC103KAT4A</t>
-  </si>
-  <si>
-    <t>C33</t>
-  </si>
-  <si>
-    <t>C34</t>
-  </si>
-  <si>
-    <t>C35</t>
-  </si>
-  <si>
-    <t>C36</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>1n</t>
-  </si>
-  <si>
-    <t>04025C102JAT2A</t>
-  </si>
-  <si>
-    <t>581-04025C102J</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>HSMG-C170</t>
-  </si>
-  <si>
-    <t>630-HSMG-C170</t>
-  </si>
-  <si>
-    <t>LED_SMD:LED_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
-  </si>
-  <si>
-    <t>https://www.mouser.it/datasheet/2/678/av02-0551en-ds-hsmx-cxxx-05mar2012-1827675.pdf</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>DIODE</t>
-  </si>
-  <si>
-    <t>LL4002G</t>
-  </si>
-  <si>
-    <t>821-LL4002G</t>
-  </si>
-  <si>
-    <t>Diode_SMD:D_MELF</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>Conn_01x02_Male</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_1x02_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>J3</t>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>100r</t>
+  </si>
+  <si>
+    <t>Microwave_LO_Generator:R_0201_0603_HandSolder_mod</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>HMC739LP4E</t>
+  </si>
+  <si>
+    <t>Microwave_LO_Generator:QFN-24-1EP_4x4mm_P0.5mm_EP2.7x2.7mm_ThermalVias_mod</t>
+  </si>
+  <si>
+    <t>584-HMC739LP4E</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>HMC292ALC3B</t>
+  </si>
+  <si>
+    <t>Microwave_LO_Generator:HMC292ALC3B</t>
+  </si>
+  <si>
+    <t>584-HMC292ALC3B</t>
+  </si>
+  <si>
+    <t>J4</t>
   </si>
   <si>
     <t>Connector_Conn_01x02_Male</t>
@@ -325,265 +565,28 @@
     <t>Microwave_LO_Generator:Connettore</t>
   </si>
   <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>Conn_01x05_Male</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_1x05_P2.54mm_Vertical</t>
-  </si>
-  <si>
     <t>J5</t>
   </si>
   <si>
     <t>SMA_END-frequencySintesizer</t>
   </si>
   <si>
+    <t>Connector_Coaxial:SMA_Molex_73251-1153_EdgeMount_Horizontal</t>
+  </si>
+  <si>
     <t>142-0701-851</t>
   </si>
   <si>
     <t>530-142-0701-851</t>
   </si>
   <si>
-    <t>Connector_Coaxial:SMA_Molex_73251-1153_EdgeMount_Horizontal</t>
-  </si>
-  <si>
-    <t>R1</t>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R17</t>
   </si>
   <si>
     <t>in dipartimento</t>
-  </si>
-  <si>
-    <t>Resistor_SMD:R_0402_1005Metric_Pad0.72x0.64mm_HandSolder</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>1K8</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>300r</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>100r</t>
-  </si>
-  <si>
-    <t>Microwave_LO_Generator:R_0201_0603_HandSolder_mod</t>
-  </si>
-  <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>R18</t>
-  </si>
-  <si>
-    <t>R19</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>DNI</t>
-  </si>
-  <si>
-    <t>R20</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>4.64k</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>2.61k</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>7.5k</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>10r</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>TP1</t>
-  </si>
-  <si>
-    <t>TestPoint</t>
-  </si>
-  <si>
-    <t>Mouser 534-5007</t>
-  </si>
-  <si>
-    <t>TestPoint:TestPoint_Loop_D2.60mm_Drill1.6mm_Beaded</t>
-  </si>
-  <si>
-    <t>https://www.mouser.it/datasheet/2/215/005-5009-741293.pdf</t>
-  </si>
-  <si>
-    <t>TP2</t>
-  </si>
-  <si>
-    <t>TP3</t>
-  </si>
-  <si>
-    <t>TP4</t>
-  </si>
-  <si>
-    <t>TP5</t>
-  </si>
-  <si>
-    <t>TP6</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>ADF4150HV</t>
-  </si>
-  <si>
-    <t>ADF4150HVBCPZ</t>
-  </si>
-  <si>
-    <t>Mouser 584-ADF4150HVBCPZ</t>
-  </si>
-  <si>
-    <t>Microwave_LO_Generator:LFCSP-32-1EP_5x5mm_P0.5mm_mod</t>
-  </si>
-  <si>
-    <t>https://www.analog.com/media/en/technical-documentation/data-sheets/ADF4150HV.pdf</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>LT1962-3.3</t>
-  </si>
-  <si>
-    <t>LT1962EMS8-3.3#PBF</t>
-  </si>
-  <si>
-    <t>584-1962EMS8-3.3PBF</t>
-  </si>
-  <si>
-    <t>Package_SO:MSOP-8_3x3mm_P0.65mm</t>
-  </si>
-  <si>
-    <t>https://www.analog.com/media/en/technical-documentation/data-sheets/1962fb.pdf</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>LT3010</t>
-  </si>
-  <si>
-    <t>LT3010EMS8E#PBF</t>
-  </si>
-  <si>
-    <t>584-LT3010EMS8E#PBF</t>
-  </si>
-  <si>
-    <t>Package_SO:MSOP-8-1EP_3x3mm_P0.65mm_EP1.68x1.88mm</t>
-  </si>
-  <si>
-    <t>https://www.analog.com/media/en/technical-documentation/data-sheets/30105fe.pdf</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>HMC739LP4E</t>
-  </si>
-  <si>
-    <t>584-HMC739LP4E</t>
-  </si>
-  <si>
-    <t>Microwave_LO_Generator:QFN-24-1EP_4x4mm_P0.5mm_EP2.7x2.7mm_ThermalVias_mod</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>LT1962-5</t>
-  </si>
-  <si>
-    <t>LT1962EMS8-5#PBF</t>
-  </si>
-  <si>
-    <t>584-LT1962EMS8-5#PBF</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>HMC292ALC3B</t>
-  </si>
-  <si>
-    <t>584-HMC292ALC3B</t>
-  </si>
-  <si>
-    <t>Microwave_LO_Generator:HMC292ALC3B</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>IQXT-220-1</t>
-  </si>
-  <si>
-    <t>Oscillator:Oscillator_SMD_Abracon_ASE-4Pin_3.2x2.5mm_HandSoldering</t>
-  </si>
-  <si>
-    <t>https://www.mouser.it/datasheet/2/741/LFTCXO075792Cutt-1115708.pdf</t>
-  </si>
-  <si>
-    <t>604-AP2012HD</t>
-  </si>
-  <si>
-    <t>AP2012HD</t>
   </si>
 </sst>
 </file>
@@ -908,7 +911,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6D6D"/>
+        <fgColor rgb="FFFF6161"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,9 +1076,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1125,7 +1129,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF6D6D"/>
+      <color rgb="FFFF6161"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1438,18 +1442,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="31.77734375" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="63.33203125" customWidth="1"/>
-    <col min="6" max="6" width="83.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" customWidth="1"/>
+    <col min="5" max="5" width="62.21875" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1460,1252 +1463,1252 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
         <v>65</v>
       </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" t="s">
-        <v>67</v>
-      </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>157</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="F36" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
         <v>90</v>
       </c>
-      <c r="E37" t="s">
-        <v>91</v>
-      </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" t="s">
         <v>92</v>
       </c>
-      <c r="B38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>90</v>
       </c>
-      <c r="E38" t="s">
-        <v>91</v>
-      </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="D39" t="s">
-        <v>187</v>
+        <v>113</v>
       </c>
       <c r="E39" t="s">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="F39" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>100</v>
+        <v>147</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>102</v>
+        <v>179</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" t="s">
-        <v>107</v>
-      </c>
-      <c r="E44" t="s">
-        <v>108</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>113</v>
+        <v>29</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>139</v>
+        <v>55</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="C63" s="1">
         <v>5007</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>145</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="C64" s="1">
         <v>5007</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>145</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="C65" s="1">
         <v>5007</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>145</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="C66" s="1">
         <v>5007</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>145</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="C67" s="1">
         <v>5007</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>145</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2713,177 +2716,179 @@
         <v>150</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="C68" s="1">
         <v>5007</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>145</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="D69" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="E69" t="s">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="F69" t="s">
-        <v>156</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B70" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C70" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D70" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="E70" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="F70" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="B71" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="C71" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="D71" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="E71" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="F71" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="B72" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="C72" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="D72" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="E72" t="s">
-        <v>172</v>
+        <v>117</v>
+      </c>
+      <c r="F72" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="B73" t="s">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="C73" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="D73" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="E73" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="F73" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B74" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C74" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F74" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B75" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C75" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D75" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E75" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>182</v>
+        <v>18</v>
       </c>
       <c r="B76" t="s">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="E76" t="s">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="F76" t="s">
-        <v>185</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H76">
+    <sortCondition ref="A2:A76"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>